--- a/data/trans_bre/P18_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_6_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>11,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,82</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>111,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>230,84%</t>
+          <t>-21,97%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-9,46%</t>
+          <t>19,66%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>244,39%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>104,71%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 12,51</t>
+          <t>-16,61; 20,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 7,38</t>
+          <t>-27,33; 7,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 8,1</t>
+          <t>-10,46; 9,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 15,28</t>
+          <t>7,14; 15,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -3,93</t>
+          <t>1,69; 17,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 248,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,41; 227,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 131,75</t>
+          <t>-67,65; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,29; 553,44</t>
+          <t>-84,32; 325,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -4,35</t>
+          <t>-52,56; 131,17</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>96,54; 518,76</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13,07; 346,12</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,53</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>140,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>123,43%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>178,28%</t>
+          <t>151,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>155,03%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-9,24%</t>
+          <t>168,43%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>54,47%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>76,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 12,37</t>
+          <t>4,74; 14,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 9,06</t>
+          <t>2,75; 11,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 11,4</t>
+          <t>4,81; 11,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,36</t>
+          <t>0,25; 8,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,64; -4,48</t>
+          <t>2,58; 12,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,4; 228,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,84; 261,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,67; 323,05</t>
+          <t>47,7; 305,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 111,1</t>
+          <t>40,51; 398,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-13,52; -4,88</t>
+          <t>70,08; 319,21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 121,84</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18,65; 162,01</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>85,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>132,88%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>90,21%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>48,27%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 7,15</t>
+          <t>0,14; 11,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,62</t>
+          <t>-4,24; 4,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,59</t>
+          <t>4,07; 12,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,48</t>
+          <t>2,15; 9,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 2,02</t>
+          <t>0,1; 10,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 101,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 153,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,97; 211,64</t>
+          <t>-5,12; 230,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,79; 219,42</t>
+          <t>-52,21; 121,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 2,13</t>
+          <t>45,18; 249,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>26,81; 221,79</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 151,14</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>102,39%</t>
+          <t>70,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>88,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-7,88%</t>
+          <t>86,31%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>97,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 9,62</t>
+          <t>2,22; 8,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 6,02</t>
+          <t>1,04; 7,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,78</t>
+          <t>0,54; 9,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,19; -4,68</t>
+          <t>3,01; 12,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,9; 143,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 130,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,72; 165,58</t>
+          <t>16,93; 124,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,87; 142,01</t>
+          <t>12,04; 219,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -5,15</t>
+          <t>1,88; 259,08</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29,89; 248,19</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,39</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,3</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>88,65%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>62,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>102,41%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>94,82%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>79,89%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,14; 9,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 5,78</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 8,83</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 8,61</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 10,09</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40,86; 144,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 128,61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>45,01; 166,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43,76; 148,63</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>41,38; 128,69</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
